--- a/aug_pc_result/2026_Jan_21_11_42_50_d_separation_spearman_pc_gt_graph_AdaSyn_20_910963/results.xlsx
+++ b/aug_pc_result/2026_Jan_21_11_42_50_d_separation_spearman_pc_gt_graph_AdaSyn_20_910963/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CausalLearning\code\aug_pc_result\2026_Jan_21_11_42_50_d_separation_spearman_pc_gt_graph_AdaSyn_20_910963\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B405FFB2-0D05-426E-BFFC-A59448AF1188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D12819-6E67-4617-8AFD-B0907689874E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
